--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c51537410c5afe56/Projects/Source/Repos/SOS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\OneDrive\Projects\Source\Repos\EdGarrity\SOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CA8DFEA4-113C-45AB-8D6E-41B473AE66C2}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{453C4EC4-47FF-4716-83B3-CB763E059A74}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Observations</t>
-  </si>
-  <si>
-    <t>Memory (GB)</t>
   </si>
   <si>
     <t>Question the need to store Push string in Individual object.  Why not just translate Plus program when needed.
@@ -53,6 +50,18 @@
   </si>
   <si>
     <t>Evaluated one individual on laptop with debug code single thread (break point at PushPG.compute_errors() line #38).</t>
+  </si>
+  <si>
+    <t>Heap Memory</t>
+  </si>
+  <si>
+    <t>29 GB</t>
+  </si>
+  <si>
+    <t>924.17196 GB</t>
+  </si>
+  <si>
+    <t>Evaluated one individual on desktop with debug code single thread (break point at PushPG.compute_errors() line #38).</t>
   </si>
 </sst>
 </file>
@@ -88,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -96,6 +105,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,21 +420,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0105ADEE-4680-421E-8161-63C17F59E7EE}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="101.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="101.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -441,21 +451,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43398.458333333336</v>
       </c>
       <c r="B2" s="2">
         <v>3.2407407407407406E-2</v>
       </c>
-      <c r="C2" s="4">
-        <v>29</v>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43401.775694444441</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.3865740740740739E-2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\OneDrive\Projects\Source\Repos\EdGarrity\SOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{453C4EC4-47FF-4716-83B3-CB763E059A74}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{F387AB10-E0D1-460B-BD8A-269F833EC03D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Evaluated one individual on desktop with debug code single thread (break point at PushPG.compute_errors() line #38).</t>
+  </si>
+  <si>
+    <t>Not able to get CodeBaseRegister to manage memory without memory exceptions.  Will abandon this work for now, undo the CodeBaseRegister, and continue this branch to research other options.</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0105ADEE-4680-421E-8161-63C17F59E7EE}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,7 +434,7 @@
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="101.44140625" customWidth="1"/>
+    <col min="5" max="5" width="101.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -447,7 +450,7 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -480,6 +483,14 @@
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43401.816666666666</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\OneDrive\Projects\Source\Repos\EdGarrity\SOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{F387AB10-E0D1-460B-BD8A-269F833EC03D}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{D48DCA4D-8225-4966-98CD-C97823E2522E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Not able to get CodeBaseRegister to manage memory without memory exceptions.  Will abandon this work for now, undo the CodeBaseRegister, and continue this branch to research other options.</t>
+  </si>
+  <si>
+    <t>643,240.11 KB</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0105ADEE-4680-421E-8161-63C17F59E7EE}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,6 +496,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43401.843055555553</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9.8379629629629633E-3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\OneDrive\Projects\Source\Repos\EdGarrity\SOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{D48DCA4D-8225-4966-98CD-C97823E2522E}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{6737050E-805C-484B-ACB9-A62706374D2B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="1" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="VS Heap Tool" sheetId="1" r:id="rId1"/>
+    <sheet name="Heap Report from Test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -68,6 +69,33 @@
   </si>
   <si>
     <t>643,240.11 KB</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Heap Memory Test 1</t>
+  </si>
+  <si>
+    <t>Heap Memory Test 2</t>
+  </si>
+  <si>
+    <t>Heap Memory Test 3</t>
+  </si>
+  <si>
+    <t>Research_Memory_Management_Options</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Release</t>
   </si>
 </sst>
 </file>
@@ -428,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0105ADEE-4680-421E-8161-63C17F59E7EE}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,4 +542,79 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8A60E5-87A9-419C-8F76-5A9AAC406F60}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="50.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43409.84375</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4">
+        <v>255320430</v>
+      </c>
+      <c r="G2" s="4">
+        <v>255320430</v>
+      </c>
+      <c r="H2" s="4">
+        <v>255320430</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\OneDrive\Projects\Source\Repos\EdGarrity\SOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{D48DCA4D-8225-4966-98CD-C97823E2522E}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{2E92929C-EAF5-4797-A215-059192303CE9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="1" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="VS Heap Tool" sheetId="1" r:id="rId1"/>
+    <sheet name="Heap Report from Test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -68,6 +69,36 @@
   </si>
   <si>
     <t>643,240.11 KB</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Heap Memory Test 1</t>
+  </si>
+  <si>
+    <t>Heap Memory Test 2</t>
+  </si>
+  <si>
+    <t>Heap Memory Test 3</t>
+  </si>
+  <si>
+    <t>Research_Memory_Management_Options</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Factory_Class</t>
   </si>
 </sst>
 </file>
@@ -428,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0105ADEE-4680-421E-8161-63C17F59E7EE}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,4 +545,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8A60E5-87A9-419C-8F76-5A9AAC406F60}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="50.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43409.84375</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4">
+        <v>255320430</v>
+      </c>
+      <c r="G2" s="4">
+        <v>255320430</v>
+      </c>
+      <c r="H2" s="4">
+        <v>255320430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43409.854166666664</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4">
+        <v>83737598</v>
+      </c>
+      <c r="G3" s="4">
+        <v>190402070</v>
+      </c>
+      <c r="H3" s="4">
+        <v>403696526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\OneDrive\Projects\Source\Repos\EdGarrity\SOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarrity\OneDrive\Projects\Source\Repos\EdGarrity\SOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{2E92929C-EAF5-4797-A215-059192303CE9}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{93548474-4F70-4B03-9F70-681175152695}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="1" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
   </bookViews>
   <sheets>
     <sheet name="VS Heap Tool" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t>Factory_Class</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Memory usage seems random between 83M and 403M</t>
+  </si>
+  <si>
+    <t>Full test of PushP and PushGP.</t>
+  </si>
+  <si>
+    <t>Limited test to PushP.  Also, updated pack() in Literal.h to use factory.</t>
+  </si>
+  <si>
+    <t>Memory usage consistant</t>
   </si>
 </sst>
 </file>
@@ -463,15 +478,15 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="101.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="101.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43398.458333333336</v>
       </c>
@@ -505,7 +520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43401.775694444441</v>
       </c>
@@ -519,7 +534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43401.816666666666</v>
       </c>
@@ -527,7 +542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43401.843055555553</v>
       </c>
@@ -549,21 +564,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8A60E5-87A9-419C-8F76-5A9AAC406F60}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43409.84375</v>
       </c>
@@ -618,7 +633,7 @@
         <v>255320430</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43409.854166666664</v>
       </c>
@@ -639,6 +654,41 @@
       </c>
       <c r="H3" s="4">
         <v>403696526</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43411.40625</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4">
+        <v>130095</v>
+      </c>
+      <c r="G4" s="4">
+        <v>130095</v>
+      </c>
+      <c r="H4" s="4">
+        <v>130095</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarrity\OneDrive\Projects\Source\Repos\EdGarrity\SOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{93548474-4F70-4B03-9F70-681175152695}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{16D8AC63-D989-4336-9E37-78599DD3025C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Memory usage consistant</t>
+  </si>
+  <si>
+    <t>Replaced adopt() in Code.h with call to CodeList() constructor</t>
   </si>
 </sst>
 </file>
@@ -564,11 +567,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8A60E5-87A9-419C-8F76-5A9AAC406F60}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -691,6 +692,32 @@
         <v>26</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43411.458333333336</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4">
+        <v>130007</v>
+      </c>
+      <c r="G5" s="4">
+        <v>130007</v>
+      </c>
+      <c r="H5" s="4">
+        <v>130007</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarrity\OneDrive\Projects\Source\Repos\EdGarrity\SOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{16D8AC63-D989-4336-9E37-78599DD3025C}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{AD31A966-F7D6-4DCA-AB36-532D14E658FE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Replaced adopt() in Code.h with call to CodeList() constructor</t>
+  </si>
+  <si>
+    <t>Implemented CodeList Heap Manager</t>
   </si>
 </sst>
 </file>
@@ -567,9 +570,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8A60E5-87A9-419C-8F76-5A9AAC406F60}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -718,6 +723,32 @@
         <v>27</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43411.020833333336</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4">
+        <v>116791</v>
+      </c>
+      <c r="G6" s="4">
+        <v>116791</v>
+      </c>
+      <c r="H6" s="4">
+        <v>116791</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarrity\OneDrive\Projects\Source\Repos\EdGarrity\SOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{AD31A966-F7D6-4DCA-AB36-532D14E658FE}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{06F2E473-0FF6-4A0E-AD16-2EA1A08A6352}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Implemented CodeList Heap Manager</t>
+  </si>
+  <si>
+    <t>Consolidated creation of static Push code snippets</t>
   </si>
 </sst>
 </file>
@@ -570,11 +573,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8A60E5-87A9-419C-8F76-5A9AAC406F60}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -749,6 +750,32 @@
         <v>28</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43412.73333333333</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarrity\OneDrive\Projects\Source\Repos\EdGarrity\SOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\OneDrive\Projects\Source\Repos\EdGarrity\SOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{06F2E473-0FF6-4A0E-AD16-2EA1A08A6352}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF1790-E109-4B3F-A51D-6709B1D1A596}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="1" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
   </bookViews>
   <sheets>
     <sheet name="VS Heap Tool" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -122,13 +122,54 @@
     <t>Implemented CodeList Heap Manager</t>
   </si>
   <si>
-    <t>Consolidated creation of static Push code snippets</t>
+    <t>PushP Only
+Consolidated creation of static Push code snippets</t>
+  </si>
+  <si>
+    <t>PushP Only 
+(1 = 1, 2 = 100, 3 = 1000 iterations)
+Fixed bug in memory measurement algorithm</t>
+  </si>
+  <si>
+    <t>PushP Only 
+(1 = 1, 2 = 100, 3 = 1000 iterations)
+Added recursive statck usage test case</t>
+  </si>
+  <si>
+    <t>9,456
+10,176
+10,656</t>
+  </si>
+  <si>
+    <t>Check for a valid answer for the test cases disabled.  The recursive stack case is not deterministic</t>
+  </si>
+  <si>
+    <t>61,752
+59,832
+61,352</t>
+  </si>
+  <si>
+    <t>PushP and Plush
+(1 = 1, 2 = 100, 3 = 1000 iterations)
+Replaced test cases which exceeded maximum number of point evaluations.</t>
+  </si>
+  <si>
+    <t>42,212
+41,732
+42,932</t>
+  </si>
+  <si>
+    <t>382,852
+385,492</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -167,11 +208,37 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -182,6 +249,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3BBB98D-4CE1-4005-A70E-9981EE0DA113}" name="Table1" displayName="Table1" ref="A1:J10" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:J10" xr:uid="{FC87183D-D316-48E5-9B11-07D68CBF7FC6}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{3CC0C68B-B0DE-46DB-9383-B12F059046F8}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{12D948F6-6D3F-4408-AF4B-8CD963811641}" name="Platform"/>
+    <tableColumn id="3" xr3:uid="{5988A5C9-EA95-46E6-9266-ABC4E308018C}" name="Build"/>
+    <tableColumn id="4" xr3:uid="{3E6B08E1-BB1E-4FAC-A813-53014CCE52E6}" name="Branch"/>
+    <tableColumn id="5" xr3:uid="{6C442EC8-F9C0-4F9E-BF59-38A9B1DD07B8}" name="Duration"/>
+    <tableColumn id="6" xr3:uid="{2025133B-BD82-438F-9987-5409D522310F}" name="Heap Memory Test 1" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{66D27A9D-E74C-4AC7-93BC-81A2CA8FB080}" name="Heap Memory Test 2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{ECEA051C-7863-4ADE-97EC-0239880D962D}" name="Heap Memory Test 3" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{F918F1C7-2526-4A59-A7EF-0697F7720D01}" name="Description" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{129AA7D7-947F-4167-B5BB-C73F3D6B147E}" name="Observations" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,15 +573,15 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="101.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="101.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43398.458333333336</v>
       </c>
@@ -529,7 +615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43401.775694444441</v>
       </c>
@@ -543,7 +629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43401.816666666666</v>
       </c>
@@ -551,7 +637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43401.843055555553</v>
       </c>
@@ -573,20 +659,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8A60E5-87A9-419C-8F76-5A9AAC406F60}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="8" width="19.44140625" customWidth="1"/>
+    <col min="9" max="9" width="50.6640625" customWidth="1"/>
+    <col min="10" max="10" width="50.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -617,8 +708,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>43409.84375</v>
       </c>
       <c r="B2" t="s">
@@ -640,8 +731,8 @@
         <v>255320430</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>43409.854166666664</v>
       </c>
       <c r="B3" t="s">
@@ -665,12 +756,12 @@
       <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>43411.40625</v>
       </c>
       <c r="B4" t="s">
@@ -694,12 +785,12 @@
       <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>43411.458333333336</v>
       </c>
       <c r="B5" t="s">
@@ -724,8 +815,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>43411.020833333336</v>
       </c>
       <c r="B6" t="s">
@@ -750,8 +841,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>43412.73333333333</v>
       </c>
       <c r="B7" t="s">
@@ -772,12 +863,92 @@
       <c r="H7" s="4">
         <v>16</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>43421.481944444444</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4096</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>43421.479166666664</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4176</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>43421.498611111114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="7">
+        <v>7916</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\OneDrive\Projects\Source\Repos\EdGarrity\SOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{63BF45B0-FA21-4463-8234-338C77BF610A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{6737050E-805C-484B-ACB9-A62706374D2B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="102_{9866D328-2DCF-483C-B536-09158372D0B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="1" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -96,12 +96,80 @@
   </si>
   <si>
     <t>Release</t>
+  </si>
+  <si>
+    <t>Factory_Class</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Memory usage seems random between 83M and 403M</t>
+  </si>
+  <si>
+    <t>Full test of PushP and PushGP.</t>
+  </si>
+  <si>
+    <t>Limited test to PushP.  Also, updated pack() in Literal.h to use factory.</t>
+  </si>
+  <si>
+    <t>Memory usage consistant</t>
+  </si>
+  <si>
+    <t>Replaced adopt() in Code.h with call to CodeList() constructor</t>
+  </si>
+  <si>
+    <t>Implemented CodeList Heap Manager</t>
+  </si>
+  <si>
+    <t>PushP Only
+Consolidated creation of static Push code snippets</t>
+  </si>
+  <si>
+    <t>PushP Only 
+(1 = 1, 2 = 100, 3 = 1000 iterations)
+Fixed bug in memory measurement algorithm</t>
+  </si>
+  <si>
+    <t>PushP Only 
+(1 = 1, 2 = 100, 3 = 1000 iterations)
+Added recursive statck usage test case</t>
+  </si>
+  <si>
+    <t>9,456
+10,176
+10,656</t>
+  </si>
+  <si>
+    <t>Check for a valid answer for the test cases disabled.  The recursive stack case is not deterministic</t>
+  </si>
+  <si>
+    <t>61,752
+59,832
+61,352</t>
+  </si>
+  <si>
+    <t>PushP and Plush
+(1 = 1, 2 = 100, 3 = 1000 iterations)
+Replaced test cases which exceeded maximum number of point evaluations.</t>
+  </si>
+  <si>
+    <t>42,212
+41,732
+42,932</t>
+  </si>
+  <si>
+    <t>382,852
+385,492</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -140,11 +208,37 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -155,6 +249,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3BBB98D-4CE1-4005-A70E-9981EE0DA113}" name="Table1" displayName="Table1" ref="A1:J10" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:J10" xr:uid="{FC87183D-D316-48E5-9B11-07D68CBF7FC6}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{3CC0C68B-B0DE-46DB-9383-B12F059046F8}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{12D948F6-6D3F-4408-AF4B-8CD963811641}" name="Platform"/>
+    <tableColumn id="3" xr3:uid="{5988A5C9-EA95-46E6-9266-ABC4E308018C}" name="Build"/>
+    <tableColumn id="4" xr3:uid="{3E6B08E1-BB1E-4FAC-A813-53014CCE52E6}" name="Branch"/>
+    <tableColumn id="5" xr3:uid="{6C442EC8-F9C0-4F9E-BF59-38A9B1DD07B8}" name="Duration"/>
+    <tableColumn id="6" xr3:uid="{2025133B-BD82-438F-9987-5409D522310F}" name="Heap Memory Test 1" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{66D27A9D-E74C-4AC7-93BC-81A2CA8FB080}" name="Heap Memory Test 2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{ECEA051C-7863-4ADE-97EC-0239880D962D}" name="Heap Memory Test 3" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{F918F1C7-2526-4A59-A7EF-0697F7720D01}" name="Description" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{129AA7D7-947F-4167-B5BB-C73F3D6B147E}" name="Observations" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,20 +659,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8A60E5-87A9-419C-8F76-5A9AAC406F60}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
     <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="50.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="8" width="19.44140625" customWidth="1"/>
+    <col min="9" max="9" width="50.6640625" customWidth="1"/>
+    <col min="10" max="10" width="50.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -591,7 +709,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>43409.84375</v>
       </c>
       <c r="B2" t="s">
@@ -611,10 +729,226 @@
       </c>
       <c r="H2" s="4">
         <v>255320430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>43409.854166666664</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4">
+        <v>83737598</v>
+      </c>
+      <c r="G3" s="4">
+        <v>190402070</v>
+      </c>
+      <c r="H3" s="4">
+        <v>403696526</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>43411.40625</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4">
+        <v>130095</v>
+      </c>
+      <c r="G4" s="4">
+        <v>130095</v>
+      </c>
+      <c r="H4" s="4">
+        <v>130095</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>43411.458333333336</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4">
+        <v>130007</v>
+      </c>
+      <c r="G5" s="4">
+        <v>130007</v>
+      </c>
+      <c r="H5" s="4">
+        <v>130007</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>43411.020833333336</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4">
+        <v>116791</v>
+      </c>
+      <c r="G6" s="4">
+        <v>116791</v>
+      </c>
+      <c r="H6" s="4">
+        <v>116791</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>43412.73333333333</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4">
+        <v>16</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>43421.481944444444</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4096</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>43421.479166666664</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4176</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>43421.498611111114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="7">
+        <v>7916</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\OneDrive\Projects\Source\Repos\EdGarrity\SOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF1790-E109-4B3F-A51D-6709B1D1A596}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="102_{9866D328-2DCF-483C-B536-09158372D0B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="1" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
   </bookViews>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\OneDrive\Projects\Source\Repos\EdGarrity\SOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="102_{9866D328-2DCF-483C-B536-09158372D0B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="102_{9866D328-2DCF-483C-B536-09158372D0B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{454EDCEC-195C-4ACD-B791-232AD167801B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="1" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -161,6 +161,19 @@
   <si>
     <t>382,852
 385,492</t>
+  </si>
+  <si>
+    <t>Reserve_Stack_Space</t>
+  </si>
+  <si>
+    <t>7,916
+7,916
+7,916</t>
+  </si>
+  <si>
+    <t>42,292
+42,132
+42,372</t>
   </si>
 </sst>
 </file>
@@ -252,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3BBB98D-4CE1-4005-A70E-9981EE0DA113}" name="Table1" displayName="Table1" ref="A1:J10" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:J10" xr:uid="{FC87183D-D316-48E5-9B11-07D68CBF7FC6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3BBB98D-4CE1-4005-A70E-9981EE0DA113}" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:J11" xr:uid="{FC87183D-D316-48E5-9B11-07D68CBF7FC6}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{3CC0C68B-B0DE-46DB-9383-B12F059046F8}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{12D948F6-6D3F-4408-AF4B-8CD963811641}" name="Platform"/>
@@ -659,11 +672,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8A60E5-87A9-419C-8F76-5A9AAC406F60}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -944,6 +955,28 @@
         <v>35</v>
       </c>
     </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>43426.651388888888</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\OneDrive\Projects\Source\Repos\EdGarrity\SOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\OneDrive\Projects\Source\Repos\EdGarrity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="102_{9866D328-2DCF-483C-B536-09158372D0B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="102_{DAFD78B7-958E-41FD-9EC5-EE13054F3160}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{125419F0-DA63-4FF7-989D-088428572D7A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="1" xr2:uid="{A1EEA105-3448-413D-A0DE-C59B297D242E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -161,6 +161,38 @@
   <si>
     <t>382,852
 385,492</t>
+  </si>
+  <si>
+    <t>Reserve_Stack_Space</t>
+  </si>
+  <si>
+    <t>7,916
+7,916
+7,916</t>
+  </si>
+  <si>
+    <t>42,292
+42,132
+42,372</t>
+  </si>
+  <si>
+    <t>42,612
+42,852
+42,692</t>
+  </si>
+  <si>
+    <t>382,452
+385,252
+384,612</t>
+  </si>
+  <si>
+    <t>Average memory usage for 1000 iterations is 384,105 bytes.</t>
+  </si>
+  <si>
+    <t>Merged updates from the Factory_Class branch.</t>
+  </si>
+  <si>
+    <t>No difference</t>
   </si>
 </sst>
 </file>
@@ -252,8 +284,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3BBB98D-4CE1-4005-A70E-9981EE0DA113}" name="Table1" displayName="Table1" ref="A1:J10" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:J10" xr:uid="{FC87183D-D316-48E5-9B11-07D68CBF7FC6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3BBB98D-4CE1-4005-A70E-9981EE0DA113}" name="Table1" displayName="Table1" ref="A1:J12" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:J12" xr:uid="{FC87183D-D316-48E5-9B11-07D68CBF7FC6}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{3CC0C68B-B0DE-46DB-9383-B12F059046F8}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{12D948F6-6D3F-4408-AF4B-8CD963811641}" name="Platform"/>
@@ -659,10 +691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8A60E5-87A9-419C-8F76-5A9AAC406F60}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,6 +976,60 @@
         <v>35</v>
       </c>
     </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>43426.651388888888</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>43427.679861111108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
